--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_134.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_134.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,718 +488,700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(2.7, 109.5)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.66, 97.0)]</t>
+          <t>[('0:02:09.380000', '0:02:14.740000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4571428571428572</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(93.3, 103.06)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(101.44, 112.4)]</t>
+          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:27.460000', '0:00:36.020000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:02.560000', '0:00:04.800000'), ('0:00:00.300000', '0:00:03.340000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:02.860000', '0:00:05.300000'), ('0:00:00.380000', '0:00:03.700000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:25.480000', '0:00:32.760000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_289</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1548507462686567</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:min', 'E:min', 'C', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min/b7', 'A:min/6', 'F', 'A:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(10.79204, 23.121836)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(2.282828, 10.689251)]</t>
+          <t>[('0:03:46.020000', '0:04:01.060000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5GjPQ0eI7AgmOnADn1EO6Q</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>[('0:00:21.440000', '0:00:25.400000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:02.580000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(96.74, 108.82)]</t>
+          <t>[('0:00:21.020000', '0:00:31.860000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(62.02, 71.86)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:11.500000', '0:00:28.960000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(20.42, 23.5)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(10.2, 18.84)]</t>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:08.158789', '0:00:22.589990')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4357142857142857</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(67.76, 84.78)]</t>
+          <t>[('0:00:16.341609', '0:00:23.354036')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.82, 145.84)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.54, 138.86)]</t>
+          <t>[('0:01:30.780000', '0:01:53.600000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(5.44, 113.76)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(7.54, 122.26)]</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(36.66, 43.94)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(8.2, 12.66)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
